--- a/dataanalysis/data/predictions/1200/08141131_1135.xlsx
+++ b/dataanalysis/data/predictions/1200/08141131_1135.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="159">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-14</t>
   </si>
   <si>
@@ -488,12 +491,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -851,13 +848,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AI78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,19 +957,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300145</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-4.54</v>
@@ -990,7 +990,7 @@
         <v>150605.38</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1031,8 +1031,23 @@
       <c r="W2">
         <v>-2.07</v>
       </c>
+      <c r="X2">
+        <v>8.76</v>
+      </c>
+      <c r="Y2">
+        <v>5.78</v>
+      </c>
+      <c r="Z2">
+        <v>14.46</v>
+      </c>
       <c r="AC2" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1040,22 +1055,25 @@
       <c r="AG2">
         <v>0.185109406709671</v>
       </c>
-      <c r="AH2" t="s">
-        <v>158</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300158</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-0.91</v>
@@ -1073,7 +1091,7 @@
         <v>78963.02</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K3">
         <v>17</v>
@@ -1114,8 +1132,23 @@
       <c r="W3">
         <v>0.19</v>
       </c>
+      <c r="X3">
+        <v>0.83</v>
+      </c>
+      <c r="Y3">
+        <v>8.6</v>
+      </c>
+      <c r="Z3">
+        <v>-1.38</v>
+      </c>
       <c r="AC3" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1123,22 +1156,25 @@
       <c r="AG3">
         <v>2.878057956695557</v>
       </c>
-      <c r="AH3" t="s">
-        <v>158</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300188</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>18.41</v>
@@ -1156,7 +1192,7 @@
         <v>276105.27</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1197,8 +1233,23 @@
       <c r="W4">
         <v>3.45</v>
       </c>
+      <c r="X4">
+        <v>-1.21</v>
+      </c>
+      <c r="Y4">
+        <v>19.09</v>
+      </c>
+      <c r="Z4">
+        <v>-3</v>
+      </c>
       <c r="AC4" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1206,22 +1257,25 @@
       <c r="AG4">
         <v>8.141059875488281</v>
       </c>
-      <c r="AH4" t="s">
-        <v>158</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300199</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>2.53</v>
@@ -1239,7 +1293,7 @@
         <v>218594.05</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K5">
         <v>13</v>
@@ -1280,8 +1334,23 @@
       <c r="W5">
         <v>-0.11</v>
       </c>
+      <c r="X5">
+        <v>5.08</v>
+      </c>
+      <c r="Y5">
+        <v>26.67</v>
+      </c>
+      <c r="Z5">
+        <v>4.55</v>
+      </c>
       <c r="AC5" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1289,22 +1358,25 @@
       <c r="AG5">
         <v>-0.2257438600063324</v>
       </c>
-      <c r="AH5" t="s">
-        <v>158</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300218</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-2.84</v>
@@ -1322,7 +1394,7 @@
         <v>20996.65</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1363,8 +1435,23 @@
       <c r="W6">
         <v>-0.38</v>
       </c>
+      <c r="X6">
+        <v>0.18</v>
+      </c>
+      <c r="Y6">
+        <v>22.6</v>
+      </c>
+      <c r="Z6">
+        <v>1.8</v>
+      </c>
       <c r="AC6" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1372,22 +1459,25 @@
       <c r="AG6">
         <v>4.98584508895874</v>
       </c>
-      <c r="AH6" t="s">
-        <v>158</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300289</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-10.68</v>
@@ -1405,7 +1495,7 @@
         <v>78359.96000000001</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1446,8 +1536,23 @@
       <c r="W7">
         <v>-2.14</v>
       </c>
+      <c r="X7">
+        <v>-1.39</v>
+      </c>
+      <c r="Y7">
+        <v>10.04</v>
+      </c>
+      <c r="Z7">
+        <v>-0.79</v>
+      </c>
       <c r="AC7" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1455,22 +1560,25 @@
       <c r="AG7">
         <v>4.672367095947266</v>
       </c>
-      <c r="AH7" t="s">
-        <v>158</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300304</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-4.69</v>
@@ -1488,7 +1596,7 @@
         <v>44105.84</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1529,8 +1637,23 @@
       <c r="W8">
         <v>-0.19</v>
       </c>
+      <c r="X8">
+        <v>2.28</v>
+      </c>
+      <c r="Y8">
+        <v>13.38</v>
+      </c>
+      <c r="Z8">
+        <v>4.53</v>
+      </c>
       <c r="AC8" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1538,22 +1661,25 @@
       <c r="AG8">
         <v>1.416856527328491</v>
       </c>
-      <c r="AH8" t="s">
-        <v>158</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300322</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-4.69</v>
@@ -1571,7 +1697,7 @@
         <v>200496.92</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K9">
         <v>14</v>
@@ -1612,8 +1738,23 @@
       <c r="W9">
         <v>-2.72</v>
       </c>
+      <c r="X9">
+        <v>0.15</v>
+      </c>
+      <c r="Y9">
+        <v>28.8</v>
+      </c>
+      <c r="Z9">
+        <v>2.6</v>
+      </c>
       <c r="AC9" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1621,22 +1762,25 @@
       <c r="AG9">
         <v>0.6911789178848267</v>
       </c>
-      <c r="AH9" t="s">
-        <v>158</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300368</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-9.359999999999999</v>
@@ -1654,7 +1798,7 @@
         <v>148651.99</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -1695,8 +1839,23 @@
       <c r="W10">
         <v>-3.59</v>
       </c>
+      <c r="X10">
+        <v>9.65</v>
+      </c>
+      <c r="Y10">
+        <v>17.3</v>
+      </c>
+      <c r="Z10">
+        <v>10.97</v>
+      </c>
       <c r="AC10" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1704,22 +1863,25 @@
       <c r="AG10">
         <v>0.1728997230529785</v>
       </c>
-      <c r="AH10" t="s">
-        <v>158</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300398</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-1.38</v>
@@ -1737,7 +1899,7 @@
         <v>128937.05</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1778,8 +1940,23 @@
       <c r="W11">
         <v>-0.28</v>
       </c>
+      <c r="X11">
+        <v>5.06</v>
+      </c>
+      <c r="Y11">
+        <v>23.96</v>
+      </c>
+      <c r="Z11">
+        <v>4.67</v>
+      </c>
       <c r="AC11" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1787,22 +1964,25 @@
       <c r="AG11">
         <v>-6.045093059539795</v>
       </c>
-      <c r="AH11" t="s">
-        <v>158</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300400</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>7.84</v>
@@ -1820,7 +2000,7 @@
         <v>87126.94</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -1861,8 +2041,23 @@
       <c r="W12">
         <v>1.07</v>
       </c>
+      <c r="X12">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="Y12">
+        <v>27.5</v>
+      </c>
+      <c r="Z12">
+        <v>6.96</v>
+      </c>
       <c r="AC12" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1870,22 +2065,25 @@
       <c r="AG12">
         <v>4.449227809906006</v>
       </c>
-      <c r="AH12" t="s">
-        <v>158</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300430</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>1.26</v>
@@ -1903,7 +2101,7 @@
         <v>89262.39</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1944,8 +2142,23 @@
       <c r="W13">
         <v>-0.03</v>
       </c>
+      <c r="X13">
+        <v>1.03</v>
+      </c>
+      <c r="Y13">
+        <v>25.6</v>
+      </c>
+      <c r="Z13">
+        <v>2.56</v>
+      </c>
       <c r="AC13" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1953,22 +2166,25 @@
       <c r="AG13">
         <v>0.2461214512586594</v>
       </c>
-      <c r="AH13" t="s">
-        <v>158</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300436</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>6.74</v>
@@ -1986,7 +2202,7 @@
         <v>143601.32</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K14">
         <v>31</v>
@@ -2027,8 +2243,23 @@
       <c r="W14">
         <v>0.12</v>
       </c>
+      <c r="X14">
+        <v>14.87</v>
+      </c>
+      <c r="Y14">
+        <v>171.66</v>
+      </c>
+      <c r="Z14">
+        <v>17.51</v>
+      </c>
       <c r="AC14" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2036,22 +2267,25 @@
       <c r="AG14">
         <v>4.51214075088501</v>
       </c>
-      <c r="AH14" t="s">
-        <v>158</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300486</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-0.39</v>
@@ -2069,7 +2303,7 @@
         <v>74019.67</v>
       </c>
       <c r="J15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -2110,8 +2344,23 @@
       <c r="W15">
         <v>0.35</v>
       </c>
+      <c r="X15">
+        <v>7.47</v>
+      </c>
+      <c r="Y15">
+        <v>19.97</v>
+      </c>
+      <c r="Z15">
+        <v>11.38</v>
+      </c>
       <c r="AC15" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2119,22 +2368,25 @@
       <c r="AG15">
         <v>4.272079467773438</v>
       </c>
-      <c r="AH15" t="s">
-        <v>158</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300499</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-0.45</v>
@@ -2152,7 +2404,7 @@
         <v>142692.25</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2193,8 +2445,23 @@
       <c r="W16">
         <v>-0.72</v>
       </c>
+      <c r="X16">
+        <v>6.93</v>
+      </c>
+      <c r="Y16">
+        <v>26.5</v>
+      </c>
+      <c r="Z16">
+        <v>9.279999999999999</v>
+      </c>
       <c r="AC16" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2202,22 +2469,25 @@
       <c r="AG16">
         <v>2.999380350112915</v>
       </c>
-      <c r="AH16" t="s">
-        <v>158</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300533</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>8.83</v>
@@ -2235,7 +2505,7 @@
         <v>126528.37</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2276,8 +2546,23 @@
       <c r="W17">
         <v>1.74</v>
       </c>
+      <c r="X17">
+        <v>-2.48</v>
+      </c>
+      <c r="Y17">
+        <v>39.58</v>
+      </c>
+      <c r="Z17">
+        <v>-3.25</v>
+      </c>
       <c r="AC17" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2285,22 +2570,25 @@
       <c r="AG17">
         <v>5.884521484375</v>
       </c>
-      <c r="AH17" t="s">
-        <v>158</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300570</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-4.93</v>
@@ -2318,7 +2606,7 @@
         <v>153248.4</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2359,8 +2647,23 @@
       <c r="W18">
         <v>-0.54</v>
       </c>
+      <c r="X18">
+        <v>-12.11</v>
+      </c>
+      <c r="Y18">
+        <v>122.5</v>
+      </c>
+      <c r="Z18">
+        <v>-4.56</v>
+      </c>
       <c r="AC18" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2368,22 +2671,25 @@
       <c r="AG18">
         <v>155.678955078125</v>
       </c>
-      <c r="AH18" t="s">
-        <v>158</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300579</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>6.36</v>
@@ -2401,7 +2707,7 @@
         <v>108836.01</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2442,8 +2748,23 @@
       <c r="W19">
         <v>-0.45</v>
       </c>
+      <c r="X19">
+        <v>0.83</v>
+      </c>
+      <c r="Y19">
+        <v>41.29</v>
+      </c>
+      <c r="Z19">
+        <v>2.84</v>
+      </c>
       <c r="AC19" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2451,22 +2772,25 @@
       <c r="AG19">
         <v>9.913127899169922</v>
       </c>
-      <c r="AH19" t="s">
-        <v>158</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300584</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>9.960000000000001</v>
@@ -2484,7 +2808,7 @@
         <v>78129.91</v>
       </c>
       <c r="J20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2525,8 +2849,23 @@
       <c r="W20">
         <v>0.48</v>
       </c>
+      <c r="X20">
+        <v>12.44</v>
+      </c>
+      <c r="Y20">
+        <v>62.68</v>
+      </c>
+      <c r="Z20">
+        <v>14.67</v>
+      </c>
       <c r="AC20" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2534,22 +2873,25 @@
       <c r="AG20">
         <v>4.234280586242676</v>
       </c>
-      <c r="AH20" t="s">
-        <v>158</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300609</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>16.01</v>
@@ -2567,7 +2909,7 @@
         <v>81040.88</v>
       </c>
       <c r="J21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K21">
         <v>12</v>
@@ -2608,8 +2950,23 @@
       <c r="W21">
         <v>0</v>
       </c>
+      <c r="X21">
+        <v>3.59</v>
+      </c>
+      <c r="Y21">
+        <v>55.55</v>
+      </c>
+      <c r="Z21">
+        <v>5.91</v>
+      </c>
       <c r="AC21" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2617,22 +2974,25 @@
       <c r="AG21">
         <v>6.265678405761719</v>
       </c>
-      <c r="AH21" t="s">
-        <v>158</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300620</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>3.22</v>
@@ -2650,7 +3010,7 @@
         <v>320434.82</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2691,8 +3051,23 @@
       <c r="W22">
         <v>-2.21</v>
       </c>
+      <c r="X22">
+        <v>2.44</v>
+      </c>
+      <c r="Y22">
+        <v>83.25</v>
+      </c>
+      <c r="Z22">
+        <v>1.71</v>
+      </c>
       <c r="AC22" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2700,22 +3075,25 @@
       <c r="AG22">
         <v>-7.043563365936279</v>
       </c>
-      <c r="AH22" t="s">
-        <v>158</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300637</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-1.47</v>
@@ -2733,7 +3111,7 @@
         <v>90678.05</v>
       </c>
       <c r="J23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2774,8 +3152,23 @@
       <c r="W23">
         <v>-1.15</v>
       </c>
+      <c r="X23">
+        <v>6.42</v>
+      </c>
+      <c r="Y23">
+        <v>15.98</v>
+      </c>
+      <c r="Z23">
+        <v>3.9</v>
+      </c>
       <c r="AC23" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2783,22 +3176,25 @@
       <c r="AG23">
         <v>9.304088592529297</v>
       </c>
-      <c r="AH23" t="s">
-        <v>158</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300648</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>3.64</v>
@@ -2816,7 +3212,7 @@
         <v>35785.95</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2857,8 +3253,23 @@
       <c r="W24">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X24">
+        <v>-0.5</v>
+      </c>
+      <c r="Y24">
+        <v>58.75</v>
+      </c>
+      <c r="Z24">
+        <v>-0.39</v>
+      </c>
       <c r="AC24" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2866,22 +3277,25 @@
       <c r="AG24">
         <v>2.563977003097534</v>
       </c>
-      <c r="AH24" t="s">
-        <v>158</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300671</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-4.77</v>
@@ -2899,7 +3313,7 @@
         <v>80010.36</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2940,8 +3354,23 @@
       <c r="W25">
         <v>-0.65</v>
       </c>
+      <c r="X25">
+        <v>1.01</v>
+      </c>
+      <c r="Y25">
+        <v>41.84</v>
+      </c>
+      <c r="Z25">
+        <v>1.75</v>
+      </c>
       <c r="AC25" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2949,22 +3378,25 @@
       <c r="AG25">
         <v>4.967239379882812</v>
       </c>
-      <c r="AH25" t="s">
-        <v>158</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300690</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-6.57</v>
@@ -2982,7 +3414,7 @@
         <v>73764.69</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -3023,8 +3455,23 @@
       <c r="W26">
         <v>-0.84</v>
       </c>
+      <c r="X26">
+        <v>15.39</v>
+      </c>
+      <c r="Y26">
+        <v>39.53</v>
+      </c>
+      <c r="Z26">
+        <v>16.88</v>
+      </c>
       <c r="AC26" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3032,22 +3479,25 @@
       <c r="AG26">
         <v>3.017158269882202</v>
       </c>
-      <c r="AH26" t="s">
-        <v>158</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300697</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-3.21</v>
@@ -3065,7 +3515,7 @@
         <v>43064.21</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -3106,8 +3556,23 @@
       <c r="W27">
         <v>-0.6</v>
       </c>
+      <c r="X27">
+        <v>1.09</v>
+      </c>
+      <c r="Y27">
+        <v>16.05</v>
+      </c>
+      <c r="Z27">
+        <v>0.5</v>
+      </c>
       <c r="AC27" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3115,22 +3580,25 @@
       <c r="AG27">
         <v>3.036830186843872</v>
       </c>
-      <c r="AH27" t="s">
-        <v>158</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300703</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>4.86</v>
@@ -3148,7 +3616,7 @@
         <v>36305.63</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3189,8 +3657,23 @@
       <c r="W28">
         <v>0.25</v>
       </c>
+      <c r="X28">
+        <v>-3.44</v>
+      </c>
+      <c r="Y28">
+        <v>35.77</v>
+      </c>
+      <c r="Z28">
+        <v>3.05</v>
+      </c>
       <c r="AC28" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3198,22 +3681,25 @@
       <c r="AG28">
         <v>2.329351902008057</v>
       </c>
-      <c r="AH28" t="s">
-        <v>158</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300706</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-5.85</v>
@@ -3231,7 +3717,7 @@
         <v>83022.55</v>
       </c>
       <c r="J29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K29">
         <v>15</v>
@@ -3272,8 +3758,23 @@
       <c r="W29">
         <v>-1.51</v>
       </c>
+      <c r="X29">
+        <v>5.77</v>
+      </c>
+      <c r="Y29">
+        <v>49.85</v>
+      </c>
+      <c r="Z29">
+        <v>7.25</v>
+      </c>
       <c r="AC29" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3281,22 +3782,25 @@
       <c r="AG29">
         <v>1.515943050384521</v>
       </c>
-      <c r="AH29" t="s">
-        <v>158</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300731</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-3.06</v>
@@ -3314,7 +3818,7 @@
         <v>76096.60000000001</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K30">
         <v>10</v>
@@ -3355,8 +3859,23 @@
       <c r="W30">
         <v>-0.95</v>
       </c>
+      <c r="X30">
+        <v>6.33</v>
+      </c>
+      <c r="Y30">
+        <v>55</v>
+      </c>
+      <c r="Z30">
+        <v>8.48</v>
+      </c>
       <c r="AC30" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3364,22 +3883,25 @@
       <c r="AG30">
         <v>0.592678964138031</v>
       </c>
-      <c r="AH30" t="s">
-        <v>158</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300753</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>4.28</v>
@@ -3397,7 +3919,7 @@
         <v>74283.19</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3438,8 +3960,23 @@
       <c r="W31">
         <v>0.12</v>
       </c>
+      <c r="X31">
+        <v>-2.12</v>
+      </c>
+      <c r="Y31">
+        <v>37.4</v>
+      </c>
+      <c r="Z31">
+        <v>0.35</v>
+      </c>
       <c r="AC31" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3447,22 +3984,25 @@
       <c r="AG31">
         <v>6.574034214019775</v>
       </c>
-      <c r="AH31" t="s">
-        <v>158</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300772</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-2.2</v>
@@ -3480,7 +4020,7 @@
         <v>28106.59</v>
       </c>
       <c r="J32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3521,8 +4061,23 @@
       <c r="W32">
         <v>-0.17</v>
       </c>
+      <c r="X32">
+        <v>6.34</v>
+      </c>
+      <c r="Y32">
+        <v>15.85</v>
+      </c>
+      <c r="Z32">
+        <v>8.039999999999999</v>
+      </c>
       <c r="AC32" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3530,22 +4085,25 @@
       <c r="AG32">
         <v>15.08387756347656</v>
       </c>
-      <c r="AH32" t="s">
-        <v>158</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300806</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-1.01</v>
@@ -3563,7 +4121,7 @@
         <v>40727.89</v>
       </c>
       <c r="J33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3604,8 +4162,23 @@
       <c r="W33">
         <v>0.25</v>
       </c>
+      <c r="X33">
+        <v>3.07</v>
+      </c>
+      <c r="Y33">
+        <v>21.99</v>
+      </c>
+      <c r="Z33">
+        <v>1.95</v>
+      </c>
       <c r="AC33" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3613,22 +4186,25 @@
       <c r="AG33">
         <v>5.516345500946045</v>
       </c>
-      <c r="AH33" t="s">
-        <v>159</v>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300815</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-11.43</v>
@@ -3646,7 +4222,7 @@
         <v>134863.78</v>
       </c>
       <c r="J34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3687,8 +4263,23 @@
       <c r="W34">
         <v>-0.5</v>
       </c>
+      <c r="X34">
+        <v>2.21</v>
+      </c>
+      <c r="Y34">
+        <v>31.5</v>
+      </c>
+      <c r="Z34">
+        <v>5.6</v>
+      </c>
       <c r="AC34" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3696,22 +4287,25 @@
       <c r="AG34">
         <v>5.395694255828857</v>
       </c>
-      <c r="AH34" t="s">
-        <v>158</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300843</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>4.52</v>
@@ -3729,7 +4323,7 @@
         <v>95621.22</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3770,8 +4364,23 @@
       <c r="W35">
         <v>0.12</v>
       </c>
+      <c r="X35">
+        <v>11.35</v>
+      </c>
+      <c r="Y35">
+        <v>46.68</v>
+      </c>
+      <c r="Z35">
+        <v>14.05</v>
+      </c>
       <c r="AC35" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3779,22 +4388,25 @@
       <c r="AG35">
         <v>3.737478971481323</v>
       </c>
-      <c r="AH35" t="s">
-        <v>158</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300870</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>7.38</v>
@@ -3812,7 +4424,7 @@
         <v>158552.78</v>
       </c>
       <c r="J36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3853,8 +4465,23 @@
       <c r="W36">
         <v>-0.17</v>
       </c>
+      <c r="X36">
+        <v>19.34</v>
+      </c>
+      <c r="Y36">
+        <v>249.88</v>
+      </c>
+      <c r="Z36">
+        <v>26.82</v>
+      </c>
       <c r="AC36" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3862,22 +4489,25 @@
       <c r="AG36">
         <v>31.96941757202148</v>
       </c>
-      <c r="AH36" t="s">
-        <v>158</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300884</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>2.36</v>
@@ -3895,7 +4525,7 @@
         <v>34674.43</v>
       </c>
       <c r="J37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3936,8 +4566,23 @@
       <c r="W37">
         <v>0.06</v>
       </c>
+      <c r="X37">
+        <v>-1.23</v>
+      </c>
+      <c r="Y37">
+        <v>15.43</v>
+      </c>
+      <c r="Z37">
+        <v>1.78</v>
+      </c>
       <c r="AC37" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3945,22 +4590,25 @@
       <c r="AG37">
         <v>6.179279327392578</v>
       </c>
-      <c r="AH37" t="s">
-        <v>158</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300902</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-0.11</v>
@@ -3978,7 +4626,7 @@
         <v>22251.33</v>
       </c>
       <c r="J38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -4019,8 +4667,23 @@
       <c r="W38">
         <v>0.1</v>
       </c>
+      <c r="X38">
+        <v>8.68</v>
+      </c>
+      <c r="Y38">
+        <v>30.44</v>
+      </c>
+      <c r="Z38">
+        <v>12.87</v>
+      </c>
       <c r="AC38" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4028,22 +4691,25 @@
       <c r="AG38">
         <v>3.753634929656982</v>
       </c>
-      <c r="AH38" t="s">
-        <v>158</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300993</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-1.53</v>
@@ -4061,7 +4727,7 @@
         <v>33660.36</v>
       </c>
       <c r="J39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K39">
         <v>7</v>
@@ -4102,8 +4768,23 @@
       <c r="W39">
         <v>0.49</v>
       </c>
+      <c r="X39">
+        <v>0.49</v>
+      </c>
+      <c r="Y39">
+        <v>19.98</v>
+      </c>
+      <c r="Z39">
+        <v>7.19</v>
+      </c>
       <c r="AC39" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>1</v>
@@ -4111,22 +4792,25 @@
       <c r="AG39">
         <v>7.623149394989014</v>
       </c>
-      <c r="AH39" t="s">
-        <v>158</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301005</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-6.96</v>
@@ -4144,7 +4828,7 @@
         <v>78222.44</v>
       </c>
       <c r="J40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -4185,8 +4869,23 @@
       <c r="W40">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="X40">
+        <v>5.04</v>
+      </c>
+      <c r="Y40">
+        <v>58.61</v>
+      </c>
+      <c r="Z40">
+        <v>12.71</v>
+      </c>
       <c r="AC40" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4194,22 +4893,25 @@
       <c r="AG40">
         <v>5.409781932830811</v>
       </c>
-      <c r="AH40" t="s">
-        <v>158</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301018</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-3.62</v>
@@ -4227,7 +4929,7 @@
         <v>94763.86</v>
       </c>
       <c r="J41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4268,8 +4970,23 @@
       <c r="W41">
         <v>0.12</v>
       </c>
+      <c r="X41">
+        <v>10.55</v>
+      </c>
+      <c r="Y41">
+        <v>66.5</v>
+      </c>
+      <c r="Z41">
+        <v>14.08</v>
+      </c>
       <c r="AC41" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4277,22 +4994,25 @@
       <c r="AG41">
         <v>-23.27939605712891</v>
       </c>
-      <c r="AH41" t="s">
-        <v>158</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301021</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>3.2</v>
@@ -4310,7 +5030,7 @@
         <v>42986.67</v>
       </c>
       <c r="J42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4351,8 +5071,23 @@
       <c r="W42">
         <v>0.72</v>
       </c>
+      <c r="X42">
+        <v>7.37</v>
+      </c>
+      <c r="Y42">
+        <v>37.72</v>
+      </c>
+      <c r="Z42">
+        <v>6.25</v>
+      </c>
       <c r="AC42" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4360,22 +5095,25 @@
       <c r="AG42">
         <v>4.104150295257568</v>
       </c>
-      <c r="AH42" t="s">
-        <v>158</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301038</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>6.35</v>
@@ -4393,7 +5131,7 @@
         <v>83280.39</v>
       </c>
       <c r="J43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K43">
         <v>13</v>
@@ -4434,8 +5172,23 @@
       <c r="W43">
         <v>0</v>
       </c>
+      <c r="X43">
+        <v>-1.06</v>
+      </c>
+      <c r="Y43">
+        <v>37.09</v>
+      </c>
+      <c r="Z43">
+        <v>-4.16</v>
+      </c>
       <c r="AC43" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4443,22 +5196,25 @@
       <c r="AG43">
         <v>1.28138542175293</v>
       </c>
-      <c r="AH43" t="s">
-        <v>158</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301069</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-1.32</v>
@@ -4476,7 +5232,7 @@
         <v>54989.43</v>
       </c>
       <c r="J44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K44">
         <v>7</v>
@@ -4517,8 +5273,23 @@
       <c r="W44">
         <v>-0.18</v>
       </c>
+      <c r="X44">
+        <v>8.18</v>
+      </c>
+      <c r="Y44">
+        <v>24.08</v>
+      </c>
+      <c r="Z44">
+        <v>10.71</v>
+      </c>
       <c r="AC44" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4526,22 +5297,25 @@
       <c r="AG44">
         <v>6.630439281463623</v>
       </c>
-      <c r="AH44" t="s">
-        <v>158</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301076</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>2.8</v>
@@ -4559,7 +5333,7 @@
         <v>128964.98</v>
       </c>
       <c r="J45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K45">
         <v>7</v>
@@ -4600,8 +5374,23 @@
       <c r="W45">
         <v>0.03</v>
       </c>
+      <c r="X45">
+        <v>10.16</v>
+      </c>
+      <c r="Y45">
+        <v>59.06</v>
+      </c>
+      <c r="Z45">
+        <v>16.77</v>
+      </c>
       <c r="AC45" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4609,22 +5398,25 @@
       <c r="AG45">
         <v>3.662601470947266</v>
       </c>
-      <c r="AH45" t="s">
-        <v>158</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301095</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-0.39</v>
@@ -4642,7 +5434,7 @@
         <v>110322.68</v>
       </c>
       <c r="J46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K46">
         <v>12</v>
@@ -4683,8 +5475,23 @@
       <c r="W46">
         <v>0.47</v>
       </c>
+      <c r="X46">
+        <v>-0.06</v>
+      </c>
+      <c r="Y46">
+        <v>85.78</v>
+      </c>
+      <c r="Z46">
+        <v>-0.5600000000000001</v>
+      </c>
       <c r="AC46" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4692,22 +5499,25 @@
       <c r="AG46">
         <v>8.02436351776123</v>
       </c>
-      <c r="AH46" t="s">
-        <v>158</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301117</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>1.9</v>
@@ -4725,7 +5535,7 @@
         <v>68693.5</v>
       </c>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K47">
         <v>7</v>
@@ -4766,8 +5576,23 @@
       <c r="W47">
         <v>1.68</v>
       </c>
+      <c r="X47">
+        <v>-3.99</v>
+      </c>
+      <c r="Y47">
+        <v>46.44</v>
+      </c>
+      <c r="Z47">
+        <v>6.91</v>
+      </c>
       <c r="AC47" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4775,22 +5600,25 @@
       <c r="AG47">
         <v>0.1453982591629028</v>
       </c>
-      <c r="AH47" t="s">
-        <v>158</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301120</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>0.67</v>
@@ -4808,7 +5636,7 @@
         <v>49383.43</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K48">
         <v>8</v>
@@ -4849,8 +5677,23 @@
       <c r="W48">
         <v>-0.45</v>
       </c>
+      <c r="X48">
+        <v>2.16</v>
+      </c>
+      <c r="Y48">
+        <v>15.45</v>
+      </c>
+      <c r="Z48">
+        <v>2.93</v>
+      </c>
       <c r="AC48" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4858,22 +5701,25 @@
       <c r="AG48">
         <v>2.617615461349487</v>
       </c>
-      <c r="AH48" t="s">
-        <v>158</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301128</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-2.75</v>
@@ -4891,7 +5737,7 @@
         <v>32550.47</v>
       </c>
       <c r="J49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -4932,8 +5778,23 @@
       <c r="W49">
         <v>-0.34</v>
       </c>
+      <c r="X49">
+        <v>12.74</v>
+      </c>
+      <c r="Y49">
+        <v>77.66</v>
+      </c>
+      <c r="Z49">
+        <v>15.74</v>
+      </c>
       <c r="AC49" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4941,22 +5802,25 @@
       <c r="AG49">
         <v>-7.056063652038574</v>
       </c>
-      <c r="AH49" t="s">
-        <v>158</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301150</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-2.15</v>
@@ -4974,7 +5838,7 @@
         <v>30583.87</v>
       </c>
       <c r="J50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5015,8 +5879,23 @@
       <c r="W50">
         <v>-0.74</v>
       </c>
+      <c r="X50">
+        <v>2.38</v>
+      </c>
+      <c r="Y50">
+        <v>32.79</v>
+      </c>
+      <c r="Z50">
+        <v>5.77</v>
+      </c>
       <c r="AC50" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5024,22 +5903,25 @@
       <c r="AG50">
         <v>3.791749238967896</v>
       </c>
-      <c r="AH50" t="s">
-        <v>158</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301161</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-5</v>
@@ -5057,7 +5939,7 @@
         <v>29836.4</v>
       </c>
       <c r="J51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K51">
         <v>9</v>
@@ -5098,8 +5980,23 @@
       <c r="W51">
         <v>-1.91</v>
       </c>
+      <c r="X51">
+        <v>2.84</v>
+      </c>
+      <c r="Y51">
+        <v>38.83</v>
+      </c>
+      <c r="Z51">
+        <v>0.08</v>
+      </c>
       <c r="AC51" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5107,22 +6004,25 @@
       <c r="AG51">
         <v>4.21902322769165</v>
       </c>
-      <c r="AH51" t="s">
-        <v>158</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301165</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>0.32</v>
@@ -5140,7 +6040,7 @@
         <v>70248.17999999999</v>
       </c>
       <c r="J52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5181,8 +6081,23 @@
       <c r="W52">
         <v>1.22</v>
       </c>
+      <c r="X52">
+        <v>1.11</v>
+      </c>
+      <c r="Y52">
+        <v>68.48</v>
+      </c>
+      <c r="Z52">
+        <v>0.15</v>
+      </c>
       <c r="AC52" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5190,22 +6105,25 @@
       <c r="AG52">
         <v>3.54817271232605</v>
       </c>
-      <c r="AH52" t="s">
-        <v>158</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301181</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-8</v>
@@ -5223,7 +6141,7 @@
         <v>40882.49</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5264,8 +6182,23 @@
       <c r="W53">
         <v>-0.06</v>
       </c>
+      <c r="X53">
+        <v>5.1</v>
+      </c>
+      <c r="Y53">
+        <v>34.56</v>
+      </c>
+      <c r="Z53">
+        <v>7.33</v>
+      </c>
       <c r="AC53" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5273,22 +6206,25 @@
       <c r="AG53">
         <v>-0.6678335666656494</v>
       </c>
-      <c r="AH53" t="s">
-        <v>158</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301196</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-2.9</v>
@@ -5306,7 +6242,7 @@
         <v>42365.82</v>
       </c>
       <c r="J54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5347,8 +6283,23 @@
       <c r="W54">
         <v>-0.21</v>
       </c>
+      <c r="X54">
+        <v>8.34</v>
+      </c>
+      <c r="Y54">
+        <v>110.66</v>
+      </c>
+      <c r="Z54">
+        <v>11.18</v>
+      </c>
       <c r="AC54" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5356,22 +6307,25 @@
       <c r="AG54">
         <v>0.7885313630104065</v>
       </c>
-      <c r="AH54" t="s">
-        <v>158</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301200</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-6.02</v>
@@ -5389,7 +6343,7 @@
         <v>49254.99</v>
       </c>
       <c r="J55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K55">
         <v>16</v>
@@ -5430,8 +6384,23 @@
       <c r="W55">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X55">
+        <v>2.63</v>
+      </c>
+      <c r="Y55">
+        <v>94.8</v>
+      </c>
+      <c r="Z55">
+        <v>-2.07</v>
+      </c>
       <c r="AC55" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5439,22 +6408,25 @@
       <c r="AG55">
         <v>4.061614990234375</v>
       </c>
-      <c r="AH55" t="s">
-        <v>158</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301217</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-4.61</v>
@@ -5472,7 +6444,7 @@
         <v>160488.73</v>
       </c>
       <c r="J56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K56">
         <v>29</v>
@@ -5513,8 +6485,23 @@
       <c r="W56">
         <v>-0.62</v>
       </c>
+      <c r="X56">
+        <v>14.49</v>
+      </c>
+      <c r="Y56">
+        <v>32.69</v>
+      </c>
+      <c r="Z56">
+        <v>14.54</v>
+      </c>
       <c r="AC56" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5522,22 +6509,25 @@
       <c r="AG56">
         <v>2.215248584747314</v>
       </c>
-      <c r="AH56" t="s">
-        <v>158</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301251</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-3.54</v>
@@ -5555,7 +6545,7 @@
         <v>63054.41</v>
       </c>
       <c r="J57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K57">
         <v>7</v>
@@ -5596,8 +6586,23 @@
       <c r="W57">
         <v>-1.14</v>
       </c>
+      <c r="X57">
+        <v>7.83</v>
+      </c>
+      <c r="Y57">
+        <v>64.45</v>
+      </c>
+      <c r="Z57">
+        <v>8.57</v>
+      </c>
       <c r="AC57" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5605,22 +6610,25 @@
       <c r="AG57">
         <v>5.042307376861572</v>
       </c>
-      <c r="AH57" t="s">
-        <v>158</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301323</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-1.09</v>
@@ -5638,7 +6646,7 @@
         <v>25054.72</v>
       </c>
       <c r="J58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -5679,8 +6687,23 @@
       <c r="W58">
         <v>-0.21</v>
       </c>
+      <c r="X58">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>65.95</v>
+      </c>
+      <c r="Z58">
+        <v>15.7</v>
+      </c>
       <c r="AC58" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5688,22 +6711,25 @@
       <c r="AG58">
         <v>6.367425441741943</v>
       </c>
-      <c r="AH58" t="s">
-        <v>158</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301357</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-7.12</v>
@@ -5721,7 +6747,7 @@
         <v>94988.89999999999</v>
       </c>
       <c r="J59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K59">
         <v>13</v>
@@ -5762,8 +6788,23 @@
       <c r="W59">
         <v>-2.75</v>
       </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>152.57</v>
+      </c>
+      <c r="Z59">
+        <v>2.01</v>
+      </c>
       <c r="AC59" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5771,22 +6812,25 @@
       <c r="AG59">
         <v>0.8406727910041809</v>
       </c>
-      <c r="AH59" t="s">
-        <v>158</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301377</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -5804,7 +6848,7 @@
         <v>27236.93</v>
       </c>
       <c r="J60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -5845,8 +6889,23 @@
       <c r="W60">
         <v>-0.3</v>
       </c>
+      <c r="X60">
+        <v>6.4</v>
+      </c>
+      <c r="Y60">
+        <v>63.35</v>
+      </c>
+      <c r="Z60">
+        <v>6.19</v>
+      </c>
       <c r="AC60" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5854,22 +6913,25 @@
       <c r="AG60">
         <v>2.978914022445679</v>
       </c>
-      <c r="AH60" t="s">
-        <v>158</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301397</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-5.55</v>
@@ -5887,7 +6949,7 @@
         <v>35527.24</v>
       </c>
       <c r="J61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K61">
         <v>6</v>
@@ -5928,8 +6990,23 @@
       <c r="W61">
         <v>-1.03</v>
       </c>
+      <c r="X61">
+        <v>15.73</v>
+      </c>
+      <c r="Y61">
+        <v>48.22</v>
+      </c>
+      <c r="Z61">
+        <v>21.55</v>
+      </c>
       <c r="AC61" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5937,22 +7014,25 @@
       <c r="AG61">
         <v>0.322616845369339</v>
       </c>
-      <c r="AH61" t="s">
-        <v>158</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301486</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-6.23</v>
@@ -5970,7 +7050,7 @@
         <v>76796.45</v>
       </c>
       <c r="J62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6011,8 +7091,23 @@
       <c r="W62">
         <v>-0.86</v>
       </c>
+      <c r="X62">
+        <v>2.01</v>
+      </c>
+      <c r="Y62">
+        <v>90.89</v>
+      </c>
+      <c r="Z62">
+        <v>2.52</v>
+      </c>
       <c r="AC62" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6020,22 +7115,25 @@
       <c r="AG62">
         <v>0.9405533671379089</v>
       </c>
-      <c r="AH62" t="s">
-        <v>158</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301489</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-1.73</v>
@@ -6053,7 +7151,7 @@
         <v>60293.34</v>
       </c>
       <c r="J63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K63">
         <v>11</v>
@@ -6094,8 +7192,23 @@
       <c r="W63">
         <v>-0.16</v>
       </c>
+      <c r="X63">
+        <v>6.76</v>
+      </c>
+      <c r="Y63">
+        <v>165.87</v>
+      </c>
+      <c r="Z63">
+        <v>7.05</v>
+      </c>
       <c r="AC63" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6103,22 +7216,25 @@
       <c r="AG63">
         <v>-1.749949216842651</v>
       </c>
-      <c r="AH63" t="s">
-        <v>158</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301511</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-7.37</v>
@@ -6136,7 +7252,7 @@
         <v>163976.44</v>
       </c>
       <c r="J64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K64">
         <v>38</v>
@@ -6177,8 +7293,23 @@
       <c r="W64">
         <v>-1</v>
       </c>
+      <c r="X64">
+        <v>9.25</v>
+      </c>
+      <c r="Y64">
+        <v>41.2</v>
+      </c>
+      <c r="Z64">
+        <v>5.8</v>
+      </c>
       <c r="AC64" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6186,22 +7317,25 @@
       <c r="AG64">
         <v>7.811563968658447</v>
       </c>
-      <c r="AH64" t="s">
-        <v>158</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301526</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>3.44</v>
@@ -6219,7 +7353,7 @@
         <v>107054.93</v>
       </c>
       <c r="J65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K65">
         <v>6</v>
@@ -6260,8 +7394,23 @@
       <c r="W65">
         <v>-0.45</v>
       </c>
+      <c r="X65">
+        <v>19.92</v>
+      </c>
+      <c r="Y65">
+        <v>6.38</v>
+      </c>
+      <c r="Z65">
+        <v>17.71</v>
+      </c>
       <c r="AC65" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD65">
+        <v>1</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6269,22 +7418,25 @@
       <c r="AG65">
         <v>-3.452840089797974</v>
       </c>
-      <c r="AH65" t="s">
-        <v>158</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688108</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>2.64</v>
@@ -6302,7 +7454,7 @@
         <v>154377.19</v>
       </c>
       <c r="J66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K66">
         <v>4</v>
@@ -6343,8 +7495,23 @@
       <c r="W66">
         <v>0.91</v>
       </c>
+      <c r="X66">
+        <v>13.72</v>
+      </c>
+      <c r="Y66">
+        <v>35.6</v>
+      </c>
+      <c r="Z66">
+        <v>17.57</v>
+      </c>
       <c r="AC66" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6352,22 +7519,25 @@
       <c r="AG66">
         <v>7.924092769622803</v>
       </c>
-      <c r="AH66" t="s">
-        <v>158</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688110</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>4.03</v>
@@ -6385,7 +7555,7 @@
         <v>268500.71</v>
       </c>
       <c r="J67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K67">
         <v>13</v>
@@ -6426,8 +7596,23 @@
       <c r="W67">
         <v>-0.08</v>
       </c>
+      <c r="X67">
+        <v>4.21</v>
+      </c>
+      <c r="Y67">
+        <v>109.6</v>
+      </c>
+      <c r="Z67">
+        <v>18.15</v>
+      </c>
       <c r="AC67" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6435,22 +7620,25 @@
       <c r="AG67">
         <v>7.894479274749756</v>
       </c>
-      <c r="AH67" t="s">
-        <v>158</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688146</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-5.6</v>
@@ -6468,7 +7656,7 @@
         <v>121774.37</v>
       </c>
       <c r="J68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6509,8 +7697,23 @@
       <c r="W68">
         <v>-0.17</v>
       </c>
+      <c r="X68">
+        <v>3.22</v>
+      </c>
+      <c r="Y68">
+        <v>42.5</v>
+      </c>
+      <c r="Z68">
+        <v>0.35</v>
+      </c>
       <c r="AC68" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6518,22 +7721,25 @@
       <c r="AG68">
         <v>-0.9505383968353271</v>
       </c>
-      <c r="AH68" t="s">
-        <v>158</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688270</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-3.81</v>
@@ -6551,7 +7757,7 @@
         <v>98550</v>
       </c>
       <c r="J69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -6592,8 +7798,23 @@
       <c r="W69">
         <v>-0.39</v>
       </c>
+      <c r="X69">
+        <v>2.99</v>
+      </c>
+      <c r="Y69">
+        <v>72.22</v>
+      </c>
+      <c r="Z69">
+        <v>9.59</v>
+      </c>
       <c r="AC69" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6601,22 +7822,25 @@
       <c r="AG69">
         <v>3.418094158172607</v>
       </c>
-      <c r="AH69" t="s">
-        <v>158</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688273</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-0.23</v>
@@ -6634,7 +7858,7 @@
         <v>39870.34</v>
       </c>
       <c r="J70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -6675,8 +7899,23 @@
       <c r="W70">
         <v>0.34</v>
       </c>
+      <c r="X70">
+        <v>-7.26</v>
+      </c>
+      <c r="Y70">
+        <v>49.93</v>
+      </c>
+      <c r="Z70">
+        <v>-2.06</v>
+      </c>
       <c r="AC70" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6684,22 +7923,25 @@
       <c r="AG70">
         <v>1.208096623420715</v>
       </c>
-      <c r="AH70" t="s">
-        <v>158</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688448</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>2.79</v>
@@ -6717,7 +7959,7 @@
         <v>25649.26</v>
       </c>
       <c r="J71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -6758,8 +8000,23 @@
       <c r="W71">
         <v>0.57</v>
       </c>
+      <c r="X71">
+        <v>20</v>
+      </c>
+      <c r="Y71">
+        <v>56.04</v>
+      </c>
+      <c r="Z71">
+        <v>14.53</v>
+      </c>
       <c r="AC71" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6767,22 +8024,25 @@
       <c r="AG71">
         <v>0.760770320892334</v>
       </c>
-      <c r="AH71" t="s">
-        <v>158</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688498</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-4.4</v>
@@ -6800,7 +8060,7 @@
         <v>54519.81</v>
       </c>
       <c r="J72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K72">
         <v>3</v>
@@ -6841,8 +8101,23 @@
       <c r="W72">
         <v>-0.17</v>
       </c>
+      <c r="X72">
+        <v>0.57</v>
+      </c>
+      <c r="Y72">
+        <v>273.69</v>
+      </c>
+      <c r="Z72">
+        <v>1.91</v>
+      </c>
       <c r="AC72" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6850,22 +8125,25 @@
       <c r="AG72">
         <v>0.7027540802955627</v>
       </c>
-      <c r="AH72" t="s">
-        <v>158</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688499</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>1.04</v>
@@ -6883,7 +8161,7 @@
         <v>60130.54</v>
       </c>
       <c r="J73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K73">
         <v>43</v>
@@ -6924,8 +8202,23 @@
       <c r="W73">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X73">
+        <v>2.61</v>
+      </c>
+      <c r="Y73">
+        <v>59.33</v>
+      </c>
+      <c r="Z73">
+        <v>-1.15</v>
+      </c>
       <c r="AC73" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6933,22 +8226,25 @@
       <c r="AG73">
         <v>3.368351459503174</v>
       </c>
-      <c r="AH73" t="s">
-        <v>158</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688551</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-8.039999999999999</v>
@@ -6966,7 +8262,7 @@
         <v>23345.65</v>
       </c>
       <c r="J74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K74">
         <v>4</v>
@@ -7007,8 +8303,23 @@
       <c r="W74">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X74">
+        <v>4.45</v>
+      </c>
+      <c r="Y74">
+        <v>43.28</v>
+      </c>
+      <c r="Z74">
+        <v>5.13</v>
+      </c>
       <c r="AC74" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7016,22 +8327,25 @@
       <c r="AG74">
         <v>3.029973030090332</v>
       </c>
-      <c r="AH74" t="s">
-        <v>158</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688591</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>5.57</v>
@@ -7049,7 +8363,7 @@
         <v>72820.52</v>
       </c>
       <c r="J75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7090,8 +8404,23 @@
       <c r="W75">
         <v>0.95</v>
       </c>
+      <c r="X75">
+        <v>1.62</v>
+      </c>
+      <c r="Y75">
+        <v>53.35</v>
+      </c>
+      <c r="Z75">
+        <v>0.55</v>
+      </c>
       <c r="AC75" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7099,22 +8428,25 @@
       <c r="AG75">
         <v>3.322280645370483</v>
       </c>
-      <c r="AH75" t="s">
-        <v>158</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688603</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>9.390000000000001</v>
@@ -7132,7 +8464,7 @@
         <v>42101.12</v>
       </c>
       <c r="J76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -7173,8 +8505,23 @@
       <c r="W76">
         <v>0.18</v>
       </c>
+      <c r="X76">
+        <v>5.69</v>
+      </c>
+      <c r="Y76">
+        <v>85</v>
+      </c>
+      <c r="Z76">
+        <v>10.58</v>
+      </c>
       <c r="AC76" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7182,22 +8529,25 @@
       <c r="AG76">
         <v>-6.553836345672607</v>
       </c>
-      <c r="AH76" t="s">
-        <v>158</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688733</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>6.38</v>
@@ -7215,7 +8565,7 @@
         <v>71512.82000000001</v>
       </c>
       <c r="J77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7256,8 +8606,23 @@
       <c r="W77">
         <v>0.16</v>
       </c>
+      <c r="X77">
+        <v>17.54</v>
+      </c>
+      <c r="Y77">
+        <v>32.99</v>
+      </c>
+      <c r="Z77">
+        <v>17.07</v>
+      </c>
       <c r="AC77" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7265,22 +8630,25 @@
       <c r="AG77">
         <v>9.716409683227539</v>
       </c>
-      <c r="AH77" t="s">
-        <v>158</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688800</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>1.13</v>
@@ -7298,7 +8666,7 @@
         <v>123744.59</v>
       </c>
       <c r="J78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K78">
         <v>8</v>
@@ -7339,8 +8707,23 @@
       <c r="W78">
         <v>0.08</v>
       </c>
+      <c r="X78">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="Y78">
+        <v>80.51000000000001</v>
+      </c>
+      <c r="Z78">
+        <v>11.2</v>
+      </c>
       <c r="AC78" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7348,8 +8731,11 @@
       <c r="AG78">
         <v>-2.595197439193726</v>
       </c>
-      <c r="AH78" t="s">
-        <v>158</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
